--- a/public/templates/weekly-timesheet-template.xlsx
+++ b/public/templates/weekly-timesheet-template.xlsx
@@ -1,47 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6265331-87A3-42F6-874E-7486329A4070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Nov25" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nov25'!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nov25'!$A$1:$P$5</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Task_ID</t>
@@ -95,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +94,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,24 +112,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="6">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -166,7 +149,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -175,46 +157,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -222,64 +183,56 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -288,10 +241,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -460,6 +413,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -486,24 +440,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -564,517 +519,506 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1048528"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.855469" customWidth="1"/>
+    <col min="2" max="2" width="9.855469" customWidth="1"/>
+    <col min="3" max="3" width="11.85547" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.14063" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.14063" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.57031" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="20.42578" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.57031" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85547" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85547" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.71094" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" s="7" customFormat="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" s="7" customFormat="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="4"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" s="7" customFormat="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" s="7" customFormat="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="7" customFormat="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" s="7" customFormat="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" s="7" customFormat="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" s="7" customFormat="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" s="7" customFormat="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" s="7" customFormat="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="7" customFormat="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" s="7" customFormat="1">
-      <c r="F18" s="19"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16" s="7" customFormat="1">
-      <c r="F19" s="19"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16" s="7" customFormat="1">
-      <c r="F20" s="19"/>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" s="7" customFormat="1">
-      <c r="F21" s="19"/>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="1:16" s="7" customFormat="1">
-      <c r="F22" s="19"/>
-      <c r="P22" s="19"/>
-    </row>
-    <row r="23" spans="1:16" s="7" customFormat="1">
-      <c r="F23" s="19"/>
-      <c r="P23" s="19"/>
-    </row>
-    <row r="24" spans="1:16" s="7" customFormat="1">
-      <c r="F24" s="19"/>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" s="7" customFormat="1">
-      <c r="F25" s="19"/>
-      <c r="P25" s="19"/>
-    </row>
-    <row r="26" spans="1:16" s="7" customFormat="1">
-      <c r="F26" s="19"/>
-      <c r="P26" s="19"/>
-    </row>
-    <row r="27" spans="1:16" s="7" customFormat="1">
-      <c r="F27" s="19"/>
-      <c r="P27" s="19"/>
-    </row>
-    <row r="28" spans="1:16" s="7" customFormat="1">
-      <c r="F28" s="19"/>
-      <c r="P28" s="19"/>
-    </row>
-    <row r="29" spans="1:16" s="7" customFormat="1">
-      <c r="F29" s="19"/>
-      <c r="P29" s="19"/>
-    </row>
-    <row r="30" spans="1:16" s="7" customFormat="1">
-      <c r="F30" s="19"/>
-      <c r="P30" s="19"/>
-    </row>
-    <row r="31" spans="1:16" s="7" customFormat="1">
-      <c r="F31" s="19"/>
-      <c r="P31" s="19"/>
-    </row>
-    <row r="32" spans="1:16" s="7" customFormat="1">
-      <c r="F32" s="19"/>
-      <c r="P32" s="19"/>
-    </row>
-    <row r="33" spans="6:16" s="7" customFormat="1">
-      <c r="F33" s="19"/>
-      <c r="P33" s="19"/>
-    </row>
-    <row r="34" spans="6:16" s="7" customFormat="1">
-      <c r="F34" s="19"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="6:16" s="7" customFormat="1">
-      <c r="F35" s="19"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="6:16" s="7" customFormat="1">
-      <c r="F36" s="19"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="6:16" s="7" customFormat="1">
-      <c r="F37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="6:16" s="7" customFormat="1">
-      <c r="F38" s="19"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="6:16" s="7" customFormat="1">
-      <c r="F39" s="19"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="6:16" s="7" customFormat="1">
-      <c r="F40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="1048528" spans="2:2">
-      <c r="B1048528" s="1"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G18" s="21"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G19" s="21"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G20" s="21"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G22" s="21"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G23" s="21"/>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G24" s="21"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G25" s="21"/>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G26" s="21"/>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G28" s="21"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G30" s="21"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G32" s="21"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="G40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="1048528" ht="15" customHeight="1">
+      <c r="B1048528"/>
+      <c r="C1048528" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:P5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1222,19 +1166,34 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72564E2-A718-440F-BC55-4414D90C46D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB5F300-CB2A-4E24-8E7D-A43D1AA354CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5DC049-8D38-4B22-8F51-85C07EE95031}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5DC049-8D38-4B22-8F51-85C07EE95031}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB5F300-CB2A-4E24-8E7D-A43D1AA354CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B72564E2-A718-440F-BC55-4414D90C46D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>